--- a/heel_tracking_output-full.xlsx
+++ b/heel_tracking_output-full.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yokolu/NSF_Floor_Vib_Camera-Labeling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{620C2BC4-096B-514B-9F42-6F9FEA8D98EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{63DF4874-4DAF-BE44-A4B2-4AF22E7A3649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="26840" windowHeight="15940" xr2:uid="{F694B8B2-16E3-A644-9071-F34303F1CB1E}"/>
+    <workbookView xWindow="2580" yWindow="500" windowWidth="26840" windowHeight="15940" xr2:uid="{F694B8B2-16E3-A644-9071-F34303F1CB1E}"/>
   </bookViews>
   <sheets>
     <sheet name="heel_tracking_output-full" sheetId="1" r:id="rId1"/>
@@ -4727,13 +4727,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Timestamp</a:t>
+                  <a:t>Timestamp (ms)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> (ms)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -4769,7 +4764,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="high"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -5577,14 +5572,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
